--- a/tut_MLOps/ROADMAP.xlsx
+++ b/tut_MLOps/ROADMAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Desktop\projects\python_projects\tutorial\tut_youtube\tut_MLOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302CFFA4-ECEB-488A-9106-EE5271F0E173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5AD454-42BC-457C-A12C-8BC62F55D9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="1605" windowWidth="27615" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="163">
   <si>
     <t>Phase</t>
   </si>
@@ -505,6 +505,15 @@
   </si>
   <si>
     <t>Kafka + ML inference pipeline</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>EC2 Done</t>
+  </si>
+  <si>
+    <t>Lecture</t>
   </si>
 </sst>
 </file>
@@ -560,7 +569,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -612,14 +624,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1547D38-DD11-41AC-A766-B97FCF653AE0}" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
-  <autoFilter ref="A1:E45" xr:uid="{B1547D38-DD11-41AC-A766-B97FCF653AE0}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1547D38-DD11-41AC-A766-B97FCF653AE0}" name="Table1" displayName="Table1" ref="B1:G45" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B1:G45" xr:uid="{B1547D38-DD11-41AC-A766-B97FCF653AE0}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C1EF5561-1CEA-475F-8C66-9F535CF497F6}" name="Phase" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{B40C6DFB-4AB1-4F8D-9C13-F15D2B3BFA57}" name="Module" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{8B58AE56-7B53-4E8C-A67B-038D5E94CF9A}" name="Topic" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{E03DC19A-164E-4022-B3C7-3C6AA862B18B}" name="Key Concepts" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{67831AC6-A5B5-4BB9-88E8-D8A3D8686573}" name="Practical Demo Ideas" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1195E490-3DA7-4FEC-BC4F-AC835C512327}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -888,705 +901,857 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="G30" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="G45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
